--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>510800</v>
+      </c>
+      <c r="E8" s="3">
         <v>293200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>279100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>479600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>573400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>352300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>347500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>515800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>137700</v>
+        <v>240900</v>
       </c>
       <c r="E9" s="3">
+        <v>137300</v>
+      </c>
+      <c r="F9" s="3">
         <v>139100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>252700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>315000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>207200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>210700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>294800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>155500</v>
+        <v>269900</v>
       </c>
       <c r="E10" s="3">
+        <v>155900</v>
+      </c>
+      <c r="F10" s="3">
         <v>140000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>226900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>258400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>145100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>136800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>221000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,16 +887,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -887,49 +907,55 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E15" s="3">
         <v>19200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>414500</v>
+      </c>
+      <c r="E17" s="3">
         <v>292600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>306000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>414800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>484700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>365800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>523200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>464500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>64800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>88700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-175700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>51300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E21" s="3">
         <v>19700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>85700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>108400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-150900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>74600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E22" s="3">
         <v>45700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>44700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>44200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>43900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>44600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-71600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-57400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-220800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-71700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-57500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-217800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-44900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-213500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-44900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-70300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>42900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-213500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-44900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-70300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>42900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-213500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E41" s="3">
         <v>29800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>63200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>119300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,211 +1681,235 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>182400</v>
+      </c>
+      <c r="E43" s="3">
         <v>123800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>107600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>157200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>203200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>136200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>126100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>202700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E44" s="3">
         <v>85000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>80500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>78400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>89800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>106600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>83700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>85100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E45" s="3">
         <v>50600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>322400</v>
+      </c>
+      <c r="E46" s="3">
         <v>289200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>241400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>306600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>370200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>339900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>363900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>341400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E47" s="3">
         <v>13800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>27600</v>
       </c>
       <c r="H47" s="3">
         <v>27600</v>
       </c>
       <c r="I47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J47" s="3">
         <v>27500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>722900</v>
+        <v>729400</v>
       </c>
       <c r="E48" s="3">
+        <v>728700</v>
+      </c>
+      <c r="F48" s="3">
         <v>596700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>603900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>584300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>566100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>557700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>637700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>353400</v>
+      </c>
+      <c r="E49" s="3">
         <v>355700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>355800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>357100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>361000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>364900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>367000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>481400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61600</v>
+        <v>54700</v>
       </c>
       <c r="E52" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F52" s="3">
         <v>52900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>44900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>45300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>47100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1471200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1443300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1263000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1330000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1388100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1343800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1363300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1532600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E57" s="3">
         <v>44400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>59700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>511100</v>
+        <v>522800</v>
       </c>
       <c r="E58" s="3">
+        <v>512900</v>
+      </c>
+      <c r="F58" s="3">
         <v>736800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>62000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>140000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>90000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>93200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>104000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>221600</v>
+        <v>186000</v>
       </c>
       <c r="E59" s="3">
+        <v>219700</v>
+      </c>
+      <c r="F59" s="3">
         <v>138200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>160500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>147300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>186000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>139600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>158900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>754900</v>
+      </c>
+      <c r="E60" s="3">
         <v>777100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>908400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>263900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>350900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>335600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>279600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>315300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1731900</v>
+        <v>1744200</v>
       </c>
       <c r="E61" s="3">
+        <v>1735900</v>
+      </c>
+      <c r="F61" s="3">
         <v>1457000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2084500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2083000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2081200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2078600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1995600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>125700</v>
+        <v>116800</v>
       </c>
       <c r="E62" s="3">
+        <v>121700</v>
+      </c>
+      <c r="F62" s="3">
         <v>36500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>39500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2608100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2626500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2394200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2377500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2464300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2448100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2391100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2340800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,37 +2491,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="E70" s="3">
         <v>-70900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>-70500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>-69800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>-70000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-70400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>-67600</v>
       </c>
       <c r="K70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1066500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-977700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-958000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-740700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-44900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-70300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>42900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-213500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E83" s="3">
         <v>19200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>7100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-55700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>125900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>114600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>84700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-42200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>65500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>30300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2997,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-9800</v>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>46300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>42100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-79000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>49100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>48400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-149600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E102" s="3">
         <v>18800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-56100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>109800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>412100</v>
+      </c>
+      <c r="E8" s="3">
         <v>510800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>293200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>279100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>479600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>573400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>352300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>347500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>515800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E9" s="3">
         <v>240900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>137300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>139100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>252700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>315000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>207200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>210700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>294800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>233500</v>
+      </c>
+      <c r="E10" s="3">
         <v>269900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>155900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>140000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>226900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>258400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>145100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>136800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>221000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,19 +906,22 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>37400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -910,52 +929,58 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E15" s="3">
         <v>19800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>381600</v>
+      </c>
+      <c r="E17" s="3">
         <v>414500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>292600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>306000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>414800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>484700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>365800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>523200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>464500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E18" s="3">
         <v>96300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>64800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>88700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-175700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>51300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1075,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E21" s="3">
         <v>116200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>85700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>108400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-150900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>74600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E22" s="3">
         <v>47500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>44700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>44900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>44600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E23" s="3">
         <v>48900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-71600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-57400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-220800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E26" s="3">
         <v>48800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-71700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>43900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-57500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-217800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E27" s="3">
         <v>47700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-44900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-213500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E33" s="3">
         <v>47700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-44900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>42900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-56400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-213500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E35" s="3">
         <v>47700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-44900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>42900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-56400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-213500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E41" s="3">
         <v>13700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>63200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,232 +1773,256 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E43" s="3">
         <v>182400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>107600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>157200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>203200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>136200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>126100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>202700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E44" s="3">
         <v>78500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>85000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>80500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>78400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>89800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>106600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>83700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>188500</v>
+      </c>
+      <c r="E45" s="3">
         <v>47800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>574200</v>
+      </c>
+      <c r="E46" s="3">
         <v>322400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>289200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>241400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>306600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>370200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>339900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>363900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>341400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E47" s="3">
         <v>11300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>27600</v>
       </c>
       <c r="I47" s="3">
         <v>27600</v>
       </c>
       <c r="J47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K47" s="3">
         <v>27500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E48" s="3">
         <v>729400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>728700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>596700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>603900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>584300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>566100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>557700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>637700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="E49" s="3">
         <v>353400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>355700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>355800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>357100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>361000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>364900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>367000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>481400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E52" s="3">
         <v>54700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>52900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>44900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>45300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>47100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1720300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1471200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1443300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1263000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1330000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1388100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1343800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1363300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1532600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2225,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E57" s="3">
         <v>46100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>59700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>363600</v>
+      </c>
+      <c r="E58" s="3">
         <v>522800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>512900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>736800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>62000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>140000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>90000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>93200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>104000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>202200</v>
+      </c>
+      <c r="E59" s="3">
         <v>186000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>219700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>138200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>160500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>147300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>186000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>139600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>158900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>602800</v>
+      </c>
+      <c r="E60" s="3">
         <v>754900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>777100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>908400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>263900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>350900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>335600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>279600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>315300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2146000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1744200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1735900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1457000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2084500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2083000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2081200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2078600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1995600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E62" s="3">
         <v>116800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>121700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>36500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>39500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2869400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2608100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2626500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2394200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2377500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2464300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2448100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2391100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2340800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,40 +2658,46 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E70" s="3">
         <v>-70400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>-70900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>-70500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>-69800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-70000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-70400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="K70" s="3">
-        <v>-67600</v>
       </c>
       <c r="L70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2728,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2590,8 +2763,11 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1078400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-977700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-958000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-740700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E81" s="3">
         <v>47700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-44900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>42900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-56400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-213500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E83" s="3">
         <v>19800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-55700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>125900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-37500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>114600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>84700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-42200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>65500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>30300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3234,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-9800</v>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>235100</v>
+      </c>
+      <c r="E100" s="3">
         <v>4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>46300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>42100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-79000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>49100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>48400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-149600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-56100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>109800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>281600</v>
+      </c>
+      <c r="E8" s="3">
         <v>412100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>510800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>293200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>279100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>479600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>573400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>352300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>347500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>515800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E9" s="3">
         <v>178600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>240900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>137300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>139100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>252700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>315000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>207200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>210700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>294800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E10" s="3">
         <v>233500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>269900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>155900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>140000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>226900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>258400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>145100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>136800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>221000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,22 +926,25 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>37400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -932,55 +952,61 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E15" s="3">
         <v>20400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>25300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>297900</v>
+      </c>
+      <c r="E17" s="3">
         <v>381600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>414500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>292600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>306000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>414800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>484700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>365800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>523200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>464500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E18" s="3">
         <v>30500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>64800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>88700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-175700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>51300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1109,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E21" s="3">
         <v>50800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>116200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>85700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>108400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-150900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>74600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E22" s="3">
         <v>45700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>47500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>44200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>44900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>43900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>48900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-71600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>43900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-57400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-220800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-71700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>43900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-57500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-217800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>47700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-44900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-56400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-213500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-70300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-56400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-213500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-70300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-56400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-213500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E41" s="3">
         <v>177500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>63200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>119300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,218 +1866,239 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E43" s="3">
         <v>143000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>182400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>123800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>107600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>157200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>203200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>136200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>126100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>202700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E44" s="3">
         <v>65200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>85000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>80500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>78400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>89800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>106600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>83700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>85100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131700</v>
+      </c>
+      <c r="E45" s="3">
         <v>188500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>36600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>543800</v>
+      </c>
+      <c r="E46" s="3">
         <v>574200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>322400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>289200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>241400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>306600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>370200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>339900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>363900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>341400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E47" s="3">
         <v>8800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>27600</v>
       </c>
       <c r="J47" s="3">
         <v>27600</v>
       </c>
       <c r="K47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="L47" s="3">
         <v>27500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>739800</v>
+      </c>
+      <c r="E48" s="3">
         <v>732000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>729400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>728700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>596700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>603900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>584300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>566100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>557700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>637700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1995,34 +2106,37 @@
         <v>351200</v>
       </c>
       <c r="E49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="F49" s="3">
         <v>353400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>355700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>355800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>357100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>361000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>364900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>367000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>481400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E52" s="3">
         <v>54200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>52900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>44900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>45300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>47100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1668200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1720300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1471200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1443300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1263000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1330000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1388100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1343800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1363300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1532600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,218 +2356,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E57" s="3">
         <v>37000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>46100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>52500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>866100</v>
+      </c>
+      <c r="E58" s="3">
         <v>363600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>522800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>512900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>736800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>62000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>140000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>90000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>93200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>104000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>189900</v>
+      </c>
+      <c r="E59" s="3">
         <v>202200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>186000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>219700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>138200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>160500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>147300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>186000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>139600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>158900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1089900</v>
+      </c>
+      <c r="E60" s="3">
         <v>602800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>754900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>777100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>908400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>263900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>350900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>335600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>279600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>315300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1679900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2146000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1744200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1735900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1457000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2084500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2083000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2081200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2078600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1995600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E62" s="3">
         <v>128300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>116800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>121700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>38700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2868200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2869400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2608100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2626500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2394200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2377500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2464300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2448100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2391100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2340800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,43 +2826,49 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="E70" s="3">
         <v>-70600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>-70400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>-70900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>-70500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-69800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-70000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-70400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="L70" s="3">
-        <v>-67600</v>
       </c>
       <c r="M70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,8 +2902,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1128800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-977700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-958000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-740700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-70300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-56400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-213500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E83" s="3">
         <v>20400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E89" s="3">
         <v>97700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-55700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>125900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>114600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>84700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>65500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>30300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3470,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-9800</v>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>235100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>46300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>42100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-79000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>49100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-149600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>305100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-56100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>109800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,206 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>553600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300900</v>
+      </c>
+      <c r="F8" s="3">
         <v>281600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>412100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>510800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>293200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>279100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>479600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>573400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>352300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>347500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>515800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>273800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>140800</v>
+      </c>
+      <c r="F9" s="3">
         <v>127700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>178600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>240900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>137300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>139100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>252700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>315000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>207200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>210700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>294800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>279800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>160100</v>
+      </c>
+      <c r="F10" s="3">
         <v>153900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>233500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>269900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>155900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>140000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>226900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>258400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>145100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>136800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>221000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,84 +963,102 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>37400</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F15" s="3">
         <v>21100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>20400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>19800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>19200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>19600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>20600</v>
       </c>
       <c r="J15" s="3">
         <v>19600</v>
       </c>
       <c r="K15" s="3">
+        <v>20600</v>
+      </c>
+      <c r="L15" s="3">
+        <v>19600</v>
+      </c>
+      <c r="M15" s="3">
         <v>19000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>25200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>25300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>440200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>293100</v>
+      </c>
+      <c r="F17" s="3">
         <v>297900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>381600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>414500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>292600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>306000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>414800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>484700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>365800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>523200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>464500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>30500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>96300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-26900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>64800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>88700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-175700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>51300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1176,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F21" s="3">
         <v>4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>50800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>116200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>19700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-7300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>85700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>108400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-150900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>74600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>54200</v>
+      </c>
+      <c r="F22" s="3">
         <v>54000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>47500</v>
       </c>
       <c r="G22" s="3">
         <v>45700</v>
       </c>
       <c r="H22" s="3">
+        <v>47500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45700</v>
+      </c>
+      <c r="J22" s="3">
         <v>44700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>44200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>44900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>43900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>44600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>38100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-70500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>48900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-45200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-71600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>20900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>43900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-57400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-220800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>11100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-70600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>48800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-45700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-71700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>20800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>43900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-57500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-217800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>11100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-69300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-15200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>47700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-44900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-70300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>20300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>42900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-56400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-213500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>10800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-69300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-15200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>47700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-44900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-70300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>20300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>42900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-56400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-213500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>10800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-69300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-15200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>47700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-44900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-70300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>20300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>42900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-56400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-213500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>10800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>202600</v>
+      </c>
+      <c r="F41" s="3">
         <v>238000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>177500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>13700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>29800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>45400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>40600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>63200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>119300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,274 +2049,322 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>206300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>119500</v>
+      </c>
+      <c r="F43" s="3">
         <v>101400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>143000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>182400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>123800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>107600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>157200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>203200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>136200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>126100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>202700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>79000</v>
+      </c>
+      <c r="F44" s="3">
         <v>72700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>65200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>78500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>85000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>80500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>78400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>89800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>106600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>83700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>85100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F45" s="3">
         <v>131700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>188500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>47800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>50600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>42300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>25500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>36600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>34000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>34900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>44100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>696200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>538100</v>
+      </c>
+      <c r="F46" s="3">
         <v>543800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>574200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>322400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>289200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>241400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>306600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>370200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>339900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>363900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>341400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>5300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>8800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>11300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>13800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>16200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>27500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>27600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>27600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>27500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>34000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>723200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>732200</v>
+      </c>
+      <c r="F48" s="3">
         <v>739800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>732000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>729400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>728700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>596700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>603900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>584300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>566100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>557700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>637700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>346600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>348800</v>
+      </c>
+      <c r="F49" s="3">
         <v>351200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>351200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>353400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>355700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>355800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>357100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>361000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>364900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>367000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>481400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F52" s="3">
         <v>28000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>54200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>54700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>55900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>52900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>34800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>44900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>45300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>47100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>38100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1819000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1652800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1668200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1720300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1471200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1443300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1263000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1330000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1388100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1343800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1363300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1532600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,236 +2617,274 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F57" s="3">
         <v>33900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>37000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>46100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>44400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>33400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>41400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>63600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>59700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>46800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>52500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>509300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>866300</v>
+      </c>
+      <c r="F58" s="3">
         <v>866100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>363600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>522800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>512900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>736800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>62000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>140000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>90000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>93200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>104000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>212400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>208000</v>
+      </c>
+      <c r="F59" s="3">
         <v>189900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>202200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>186000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>219700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>138200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>160500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>147300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>186000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>139600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>158900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1119000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1089900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>602800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>754900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>777100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>908400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>263900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>350900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>335600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>279600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>315300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1680900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1679100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1679900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2146000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1744200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1735900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1457000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2084500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2083000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2081200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2078600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1995600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F62" s="3">
         <v>106700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>128300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>116800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>121700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>36500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>35900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>37500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>38700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>39500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>34200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2964300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2890400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2868200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2869400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2608100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2626500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2394200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2377500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2464300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2448100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2391100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2340800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,46 +3159,58 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="E70" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="F70" s="3">
         <v>-71300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>-70600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>-70400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>-70900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>-70500</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>-69800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>-70000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>-70400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>-69800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>-67600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>-67600</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,8 +3247,14 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2943,8 +3291,14 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1074200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1165800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-977700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-958000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-740700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-69300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-15200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>47700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-44900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-70300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>20300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>42900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-56400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-213500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>10800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F83" s="3">
         <v>21100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>19800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>19200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>19600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>20600</v>
       </c>
       <c r="J83" s="3">
         <v>19600</v>
       </c>
       <c r="K83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="M83" s="3">
         <v>19000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>25200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>25300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F89" s="3">
         <v>14500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>97700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-55700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>125900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-37500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-17600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>114600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-15900</v>
       </c>
       <c r="E91" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-6700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-13400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-16900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>84700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-36300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-34900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-23400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-26000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-23300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F94" s="3">
         <v>4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-27600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-13800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-34700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-20700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-42200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-34200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-27300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>65500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>30300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3707,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-9800</v>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>235100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>46300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>42100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-79000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>49100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>48400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-149600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="F102" s="3">
         <v>14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>305100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-16100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>18800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-34400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-22500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-56100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>109800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>564700</v>
+      </c>
+      <c r="E8" s="3">
         <v>553600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>281600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>412100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>510800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>293200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>279100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>479600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>573400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>352300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>347500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>515800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300900</v>
+      </c>
+      <c r="E9" s="3">
         <v>273800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>140800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>127700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>178600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>240900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>137300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>139100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>252700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>315000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>207200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>210700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>294800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>263800</v>
+      </c>
+      <c r="E10" s="3">
         <v>279800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>160100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>153900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>233500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>269900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>155900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>140000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>226900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>258400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>145100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>136800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>221000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +985,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>118900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>37400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1001,64 +1020,70 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E15" s="3">
         <v>21200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>25200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>25300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>590300</v>
+      </c>
+      <c r="E17" s="3">
         <v>440200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>293100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>297900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>381600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>414500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>292600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>306000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>414800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>484700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>365800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>523200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>464500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E18" s="3">
         <v>113400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>96300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-175700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>51300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>138200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>50800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>116200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>108400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-150900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>74600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E22" s="3">
         <v>52600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>54200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>54000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>47500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>45700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>44700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E23" s="3">
         <v>64300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-46400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-70500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>48900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-45200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-71600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>43900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-57400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-220800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E26" s="3">
         <v>64000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-46500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-70600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-45700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-71700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-57500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-217800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E27" s="3">
         <v>62600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-69300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>47700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-44900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-56400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-213500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E33" s="3">
         <v>62600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-69300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>47700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-44900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-56400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-213500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E35" s="3">
         <v>62600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-69300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>47700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-44900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-56400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-213500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>211300</v>
+      </c>
+      <c r="E41" s="3">
         <v>217400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>202600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>238000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>177500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>119300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2144,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E43" s="3">
         <v>206300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>119500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>101400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>143000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>182400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>123800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>107600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>157200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>203200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>136200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>126100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>202700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E44" s="3">
         <v>90500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>79000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>72700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>65200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>78500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>85000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>80500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>78400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>89800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>106600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>83700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>85100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E45" s="3">
         <v>182000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>137000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>131700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>188500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>44100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>537100</v>
+      </c>
+      <c r="E46" s="3">
         <v>696200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>538100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>543800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>574200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>322400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>289200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>241400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>306600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>370200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>339900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>363900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>341400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,129 +2346,138 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>5300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>16200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>27600</v>
       </c>
       <c r="M47" s="3">
         <v>27600</v>
       </c>
       <c r="N47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="O47" s="3">
         <v>27500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>34000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>712900</v>
+      </c>
+      <c r="E48" s="3">
         <v>723200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>732200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>739800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>732000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>729400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>728700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>596700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>603900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>584300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>566100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>557700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>637700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>344500</v>
+      </c>
+      <c r="E49" s="3">
         <v>346600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>348800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>351200</v>
       </c>
       <c r="G49" s="3">
         <v>351200</v>
       </c>
       <c r="H49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="I49" s="3">
         <v>353400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>355700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>355800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>357100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>361000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>364900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>367000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>481400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E52" s="3">
         <v>53100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>54200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>52900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>34800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>44900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>45300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>47100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>38100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1644700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1819000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1652800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1668200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1720300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1471200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1443300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1263000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1330000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1388100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1343800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1363300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1532600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E57" s="3">
         <v>79200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>63600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>59700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>52500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
         <v>509300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>866300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>866100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>363600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>522800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>512900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>736800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>62000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>140000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>90000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>93200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>104000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>197700</v>
+      </c>
+      <c r="E59" s="3">
         <v>212400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>208000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>189900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>202200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>186000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>219700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>138200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>147300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>186000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>139600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>158900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>261100</v>
+      </c>
+      <c r="E60" s="3">
         <v>800900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1119000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1089900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>602800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>754900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>777100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>908400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>263900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>350900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>335600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>279600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>315300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1472700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1680900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1679100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1679900</v>
       </c>
-      <c r="G61" s="3">
-        <v>2146000</v>
-      </c>
       <c r="H61" s="3">
+        <v>2166300</v>
+      </c>
+      <c r="I61" s="3">
         <v>1744200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1735900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1457000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2084500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2083000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2081200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2078600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1995600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E62" s="3">
         <v>99900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106700</v>
       </c>
-      <c r="G62" s="3">
-        <v>128300</v>
-      </c>
       <c r="H62" s="3">
+        <v>108100</v>
+      </c>
+      <c r="I62" s="3">
         <v>116800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>121700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1825900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2964300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2890400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2868200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2869400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2608100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2626500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2394200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2377500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2464300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2448100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2391100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2340800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,52 +3329,58 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E70" s="3">
         <v>-71100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>-71700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>-71300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>-70600</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-70400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-70900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-70500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-69800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-70000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-70400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="O70" s="3">
-        <v>-67600</v>
       </c>
       <c r="P70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3423,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-761200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-977700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-958000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-740700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E81" s="3">
         <v>62600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-69300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>47700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-44900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-56400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-213500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E83" s="3">
         <v>21200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E89" s="3">
         <v>55900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11500</v>
       </c>
-      <c r="F89" s="3">
-        <v>14500</v>
-      </c>
       <c r="G89" s="3">
-        <v>97700</v>
+        <v>-3000</v>
       </c>
       <c r="H89" s="3">
+        <v>115200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-55700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>125900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>114600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-6700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>84700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>65500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>30300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4181,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-9800</v>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-147400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>235100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>46300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>42100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-79000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>49100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-149600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="E102" s="3">
         <v>27000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>305100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-56100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>109800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>335100</v>
+      </c>
+      <c r="E8" s="3">
         <v>564700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>553600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>281600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>412100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>510800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>293200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>279100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>479600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>573400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>352300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>347500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>515800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E9" s="3">
         <v>300900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>273800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>140800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>127700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>178600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>240900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>137300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>139100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>252700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>315000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>207200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>210700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>294800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>157800</v>
+      </c>
+      <c r="E10" s="3">
         <v>263800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>279800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>160100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>153900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>233500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>269900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>155900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>140000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>226900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>258400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>145100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>136800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>221000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,34 +1005,37 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E14" s="3">
         <v>118900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>37400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1023,67 +1043,73 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E15" s="3">
         <v>21300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>25200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>25300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>329700</v>
+      </c>
+      <c r="E17" s="3">
         <v>590300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>440200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>293100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>297900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>381600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>414500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>292600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>306000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>414800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>484700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>365800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>523200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>464500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>113400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>96300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-175700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>138200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>50800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>116200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>108400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-150900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>74600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E22" s="3">
         <v>42200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>52600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>54200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>54000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>45700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>47500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>38100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-67200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>64300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-46400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-70500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>48900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-71600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-57400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-220800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-67400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>64000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-46500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-70600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-45700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-71700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-57500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-217800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-74100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>62600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-69300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>47700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-44900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-56400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-213500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-74100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>62600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-69300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>47700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-44900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>42900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-56400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-213500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-74100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>62600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-69300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>47700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-44900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>42900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-56400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-213500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>270500</v>
+      </c>
+      <c r="E41" s="3">
         <v>211300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>217400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>202600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>238000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>177500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>119300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,201 +2237,216 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E43" s="3">
         <v>170500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>206300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>119500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>101400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>143000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>182400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>123800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>107600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>157200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>203200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>136200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>126100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>202700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E44" s="3">
         <v>69700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>90500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>79000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>72700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>65200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>78500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>85000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>80500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>78400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>89800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>106600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>83700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>85100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E45" s="3">
         <v>85500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>182000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>137000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>131700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>188500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>47800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>50600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>619000</v>
+      </c>
+      <c r="E46" s="3">
         <v>537100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>696200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>538100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>543800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>574200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>322400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>289200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>241400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>306600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>370200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>339900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>363900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>341400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>19800</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -2349,135 +2454,144 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>5300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>13800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>27600</v>
       </c>
       <c r="N47" s="3">
         <v>27600</v>
       </c>
       <c r="O47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="P47" s="3">
         <v>27500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>34000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>704600</v>
+      </c>
+      <c r="E48" s="3">
         <v>712900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>723200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>732200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>739800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>732000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>729400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>728700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>596700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>603900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>584300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>566100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>557700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>637700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>347700</v>
+      </c>
+      <c r="E49" s="3">
         <v>344500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>346600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>348800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>351200</v>
       </c>
       <c r="H49" s="3">
         <v>351200</v>
       </c>
       <c r="I49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="J49" s="3">
         <v>353400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>355700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>355800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>357100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>361000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>364900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>367000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>481400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E52" s="3">
         <v>50200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>53100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>34800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>44900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>45300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>47100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1729600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1644700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1819000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1652800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1668200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1720300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1471200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1443300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1263000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1330000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1388100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1343800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1363300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1532600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E57" s="3">
         <v>54300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>79200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>59700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>52500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E58" s="3">
         <v>9000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>509300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>866300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>866100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>363600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>522800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>512900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>736800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>62000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>140000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>90000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>93200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>104000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>263900</v>
+      </c>
+      <c r="E59" s="3">
         <v>197700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>212400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>208000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>189900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>202200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>186000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>219700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>138200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>160500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>147300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>186000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>139600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>158900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>320900</v>
+      </c>
+      <c r="E60" s="3">
         <v>261100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1119000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1089900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>602800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>754900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>777100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>908400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>263900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>350900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>335600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>279600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>315300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1472900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1472700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1680900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1679100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1679900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2166300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1744200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1735900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1457000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2084500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2083000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2081200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2078600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1995600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E62" s="3">
         <v>100400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>99900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>106700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>108100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>116800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>121700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>39500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1893400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1825900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2964300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2890400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2868200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2869400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2608100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2626500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2394200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2377500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2464300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2448100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2391100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2340800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,55 +3497,61 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>579200</v>
+      </c>
+      <c r="E70" s="3">
         <v>580000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>-71100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>-71700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>-71300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-70600</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-70400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-70900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-70500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-69800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-70000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-70400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="P70" s="3">
-        <v>-67600</v>
       </c>
       <c r="Q70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-742900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-761200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-977700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-958000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-740700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-74100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>62600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-69300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>47700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-44900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>42900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-56400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-213500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E83" s="3">
         <v>21300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E89" s="3">
         <v>58500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H89" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I89" s="3">
         <v>115200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-55700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>125900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-37500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>114600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>34700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19500</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-6700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>84700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>65500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>30300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4417,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-9800</v>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-147400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>235100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>46300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>42100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-79000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>49100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>48400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-149600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-103600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>305100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-22500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-56100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>109800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>394500</v>
+      </c>
+      <c r="E8" s="3">
         <v>335100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>564700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>553600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>281600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>412100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>510800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>293200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>279100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>479600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>573400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>352300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>347500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>515800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>223700</v>
+      </c>
+      <c r="E9" s="3">
         <v>177300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>273800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>140800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>127700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>178600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>240900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>137300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>139100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>252700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>315000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>207200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>210700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>294800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E10" s="3">
         <v>157800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>263800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>279800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>160100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>153900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>233500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>269900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>155900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>140000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>226900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>258400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>145100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>136800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>221000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,37 +1025,40 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>118900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>37400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1046,70 +1066,76 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E15" s="3">
         <v>21500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>25200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>25300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>382100</v>
+      </c>
+      <c r="E17" s="3">
         <v>329700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>590300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>440200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>293100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>297900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>381600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>414500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>292600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>306000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>414800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>484700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>365800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>523200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>464500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E18" s="3">
         <v>5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>113400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>96300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-175700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,208 +1278,221 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E21" s="3">
         <v>27000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>138200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>50800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>116200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>85700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>108400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-150900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>74600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E22" s="3">
         <v>24600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>42200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>54200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>45700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>47500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>38100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-67200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>64300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-46400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-70500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>48900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-71600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-57400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-220800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,49 +1500,52 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-67400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>64000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-46500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-70600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-45700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-71700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-57500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-217800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-74100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>62600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-69300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>47700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-44900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-70300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-56400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-213500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-74100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>62600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-69300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>47700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-70300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>42900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-56400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-213500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-74100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>62600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-69300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>47700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-70300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>42900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-56400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-213500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E41" s="3">
         <v>270500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>211300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>217400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>202600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>238000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>177500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>45400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>40600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>119300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,216 +2330,231 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E43" s="3">
         <v>131600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>170500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>206300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>119500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>101400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>143000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>182400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>123800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>107600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>157200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>203200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>136200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>126100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>202700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E44" s="3">
         <v>88400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>69700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>90500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>79000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>72700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>65200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>78500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>80500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>78400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>89800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>106600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>83700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>85100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200500</v>
+      </c>
+      <c r="E45" s="3">
         <v>128600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>85500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>182000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>137000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>131700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>188500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>47800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>652600</v>
+      </c>
+      <c r="E46" s="3">
         <v>619000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>537100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>696200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>538100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>543800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>574200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>322400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>289200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>241400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>306600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>370200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>339900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>363900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>341400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>19800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2457,141 +2562,150 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
         <v>5300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27500</v>
-      </c>
-      <c r="N47" s="3">
-        <v>27600</v>
       </c>
       <c r="O47" s="3">
         <v>27600</v>
       </c>
       <c r="P47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="Q47" s="3">
         <v>27500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>34000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>707200</v>
+      </c>
+      <c r="E48" s="3">
         <v>704600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>712900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>723200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>732200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>739800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>732000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>729400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>728700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>596700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>603900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>584300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>566100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>557700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>637700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>354300</v>
+      </c>
+      <c r="E49" s="3">
         <v>347700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>344500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>346600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>348800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>351200</v>
       </c>
       <c r="I49" s="3">
         <v>351200</v>
       </c>
       <c r="J49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="K49" s="3">
         <v>353400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>355700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>355800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>357100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>361000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>364900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>367000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>481400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E52" s="3">
         <v>38600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>44900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>45300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>47100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1776600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1729600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1644700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1819000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1652800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1668200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1720300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1471200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1443300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1263000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1330000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1388100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1343800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1363300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1532600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E57" s="3">
         <v>47900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>79200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>59700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>52500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E58" s="3">
         <v>9100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>509300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>866300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>866100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>363600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>522800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>512900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>736800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>62000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>140000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>90000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>93200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>104000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E59" s="3">
         <v>263900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>197700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>212400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>208000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>189900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>202200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>186000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>219700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>138200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>160500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>147300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>186000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>139600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>158900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>390200</v>
+      </c>
+      <c r="E60" s="3">
         <v>320900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>261100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1119000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1089900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>602800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>754900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>777100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>908400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>263900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>350900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>335600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>279600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>315300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1474700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1472900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1472700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1680900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1679100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1679900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2166300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1744200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1735900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1457000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2084500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2083000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2081200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2078600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1995600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E62" s="3">
         <v>107500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>99900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>106700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>108100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>116800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>121700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1965300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1893400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1825900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2964300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2890400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2868200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2869400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2608100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2626500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2394200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2377500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2464300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2448100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2391100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2340800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,58 +3665,64 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>578900</v>
+      </c>
+      <c r="E70" s="3">
         <v>579200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>580000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>-71100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>-71700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-71300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-70600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-70400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-70900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-70500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-69800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-70000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-70400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>-67600</v>
       </c>
       <c r="R70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-767600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-742900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-761200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-977700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-958000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-740700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-74100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>62600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-69300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>47700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-70300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>42900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-56400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-213500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E83" s="3">
         <v>21500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E89" s="3">
         <v>103500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>58500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>55900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>115200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-55700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>125900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-37500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>114600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>34700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>84700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>65500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>30300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4654,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-9800</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-30400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-147400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>235100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>46300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>42100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-79000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>49100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-149600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-113100</v>
+      </c>
+      <c r="E102" s="3">
         <v>59100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-103600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>305100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-56100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>109800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>684900</v>
+      </c>
+      <c r="E8" s="3">
         <v>394500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>335100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>564700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>553600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>281600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>412100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>510800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>293200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>279100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>479600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>573400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>352300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>347500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>515800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>386400</v>
+      </c>
+      <c r="E9" s="3">
         <v>223700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>177300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>273800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>140800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>127700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>178600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>240900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>137300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>139100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>252700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>315000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>207200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>210700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>294800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>298500</v>
+      </c>
+      <c r="E10" s="3">
         <v>170800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>157800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>263800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>279800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>160100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>153900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>233500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>269900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>155900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>140000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>226900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>258400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>145100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>136800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>221000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,40 +1045,43 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>118900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="F14" s="3">
-        <v>118900</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>37400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1069,73 +1089,79 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E15" s="3">
         <v>20300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>25200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>25300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E17" s="3">
         <v>382100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>329700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>590300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>440200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>293100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>297900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>381600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>414500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>292600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>306000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>414800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>484700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>365800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>523200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>464500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E18" s="3">
         <v>12400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>113400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-175700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>51300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E21" s="3">
         <v>36900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>138200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>50800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>116200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>85700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>108400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-150900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>74600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E22" s="3">
         <v>25400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>42200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-67200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>64300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-46400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-70500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>48900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-45200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-71600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>43900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-57400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-220800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-67400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>64000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-46500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-70600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-45700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-71700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>43900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-57500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-217800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25500</v>
+        <v>13000</v>
       </c>
       <c r="E27" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-34700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-74100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-69300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>47700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-44900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-70300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-213500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25500</v>
+        <v>13000</v>
       </c>
       <c r="E33" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-34700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-74100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>62600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-69300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-70300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>42900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-213500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25500</v>
+        <v>13000</v>
       </c>
       <c r="E35" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-34700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-74100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>62600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-69300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-70300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>42900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-213500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E41" s="3">
         <v>157400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>270500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>211300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>217400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>202600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>238000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>177500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>40600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>63200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>119300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,231 +2423,246 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>253900</v>
+      </c>
+      <c r="E43" s="3">
         <v>163500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>131600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>170500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>206300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>119500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>101400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>143000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>182400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>123800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>107600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>157200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>203200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>136200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>126100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>202700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E44" s="3">
         <v>131300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>88400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>69700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>90500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>79000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>72700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>65200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>78500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>85000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>80500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>78400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>89800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>106600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>83700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>85100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E45" s="3">
         <v>200500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>128600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>85500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>182000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>137000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>131700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>188500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E46" s="3">
         <v>652600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>619000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>537100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>696200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>538100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>543800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>574200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>322400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>289200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>241400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>306600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>370200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>339900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>363900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>341400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>19800</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2565,147 +2670,156 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
         <v>5300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27500</v>
-      </c>
-      <c r="O47" s="3">
-        <v>27600</v>
       </c>
       <c r="P47" s="3">
         <v>27600</v>
       </c>
       <c r="Q47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="R47" s="3">
         <v>27500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>34000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>702400</v>
+      </c>
+      <c r="E48" s="3">
         <v>707200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>704600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>712900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>723200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>732200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>739800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>732000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>729400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>728700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>596700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>603900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>584300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>566100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>557700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>637700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>352300</v>
+      </c>
+      <c r="E49" s="3">
         <v>354300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>347700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>344500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>346600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>348800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>351200</v>
       </c>
       <c r="J49" s="3">
         <v>351200</v>
       </c>
       <c r="K49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="L49" s="3">
         <v>353400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>355700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>355800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>357100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>361000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>364900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>367000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>481400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E52" s="3">
         <v>62500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>53100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>52900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>34800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>44900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>45300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>47100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>38100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1820100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1776600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1729600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1644700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1819000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1652800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1668200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1720300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1471200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1443300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1263000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1330000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1388100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1343800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1363300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1532600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E57" s="3">
         <v>80200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>79200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>63600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>59700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>52500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E58" s="3">
         <v>7900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>509300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>866300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>866100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>363600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>522800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>512900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>736800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>62000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>140000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>90000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>93200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>104000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E59" s="3">
         <v>302000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>263900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>197700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>212400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>208000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>189900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>202200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>186000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>219700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>138200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>160500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>147300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>186000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>139600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>158900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>411300</v>
+      </c>
+      <c r="E60" s="3">
         <v>390200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>320900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>261100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1119000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1089900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>602800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>754900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>777100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>908400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>263900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>350900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>335600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>279600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>315300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1475400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1474700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1472900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1472700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1680900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1679100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1679900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2166300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1744200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1735900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1457000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2084500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2083000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2081200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2078600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1995600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E62" s="3">
         <v>108100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>107500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>99900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>106700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>108100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>116800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>121700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>36500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1963500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1965300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1893400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1825900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2964300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2890400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2868200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2869400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2608100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2626500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2394200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2377500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2464300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2448100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2391100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2340800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,61 +3833,67 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>579900</v>
+      </c>
+      <c r="E70" s="3">
         <v>578900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>579200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>580000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>-71100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-71700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-71300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-70600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-70400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-70900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-70500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-69800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-70000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="R70" s="3">
-        <v>-67600</v>
       </c>
       <c r="S70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-723300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-767600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-742900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-761200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-977700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-958000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-740700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25500</v>
+        <v>13000</v>
       </c>
       <c r="E81" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-34700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-74100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>62600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-69300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-70300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>42900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-213500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E83" s="3">
         <v>20300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>103500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>58500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>55900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>115200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-55700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>125900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-37500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>114600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>34700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>84700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>65500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>30300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,17 +5082,18 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-50000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4891,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-9800</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-68300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-30400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-147400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>235100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>46300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>42100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-79000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>49100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-149600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-113100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>59100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-103600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>305100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-22500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-56100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>109800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>684900</v>
+        <v>647500</v>
       </c>
       <c r="E8" s="3">
+        <v>1079400</v>
+      </c>
+      <c r="F8" s="3">
         <v>394500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>335100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>564700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>553600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>281600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>412100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>510800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>293200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>279100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>479600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>573400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>352300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>347500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>515800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>386400</v>
+        <v>365700</v>
       </c>
       <c r="E9" s="3">
+        <v>996500</v>
+      </c>
+      <c r="F9" s="3">
         <v>223700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>177300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>273800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>140800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>127700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>178600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>240900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>137300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>139100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>252700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>315000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>207200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>210700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>294800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>298500</v>
+        <v>281800</v>
       </c>
       <c r="E10" s="3">
+        <v>82900</v>
+      </c>
+      <c r="F10" s="3">
         <v>170800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>157800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>263800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>279800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>160100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>153900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>233500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>269900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>155900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>140000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>226900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>258400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>145100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>136800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>221000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,31 +1079,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-4900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>118900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>37400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1092,76 +1111,82 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21900</v>
+        <v>23100</v>
       </c>
       <c r="E15" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F15" s="3">
         <v>20300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>25200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>25300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>550000</v>
+        <v>555300</v>
       </c>
       <c r="E17" s="3">
+        <v>932100</v>
+      </c>
+      <c r="F17" s="3">
         <v>382100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>329700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>590300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>440200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>293100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>297900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>381600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>414500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>292600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>306000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>414800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>484700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>365800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>523200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>464500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>134900</v>
+        <v>92200</v>
       </c>
       <c r="E18" s="3">
+        <v>147300</v>
+      </c>
+      <c r="F18" s="3">
         <v>12400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>113400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>64800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-175700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>51300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,279 +1355,294 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>156900</v>
+        <v>115400</v>
       </c>
       <c r="E21" s="3">
+        <v>193800</v>
+      </c>
+      <c r="F21" s="3">
         <v>36900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>138200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>116200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>85700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>108400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-150900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>74600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25100</v>
+        <v>24000</v>
       </c>
       <c r="E22" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F22" s="3">
         <v>25400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>42200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>43900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>38100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>109800</v>
+        <v>68400</v>
       </c>
       <c r="E23" s="3">
+        <v>101100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-67200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>64300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-70500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>48900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-45200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-71600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-57400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-220800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>109400</v>
+        <v>68100</v>
       </c>
       <c r="E26" s="3">
+        <v>100500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-67400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>64000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-46500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-70600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-45700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-71700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-57500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-217800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13000</v>
+        <v>7300</v>
       </c>
       <c r="E27" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-74100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-69300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>47700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-44900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-70300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-56400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-213500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2063,117 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13000</v>
+        <v>7300</v>
       </c>
       <c r="E33" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-74100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-45600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-69300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-44900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-70300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-56400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-213500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13000</v>
+        <v>7300</v>
       </c>
       <c r="E35" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-74100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-45600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-69300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-44900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-70300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-56400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-213500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E41" s="3">
         <v>188400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>157400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>270500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>211300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>217400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>202600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>238000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>177500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>63200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>119300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>219300</v>
+      </c>
+      <c r="E43" s="3">
         <v>253900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>163500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>131600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>170500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>206300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>119500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>101400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>143000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>182400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>123800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>107600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>157200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>203200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>136200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>126100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>202700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E44" s="3">
         <v>118100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>131300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>88400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>69700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>90500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>79000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>72700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>65200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>78500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>85000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>80500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>78400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>89800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>106600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>83700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>85100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E45" s="3">
         <v>152600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>128600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>85500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>182000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>137000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>131700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>188500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>47800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>663100</v>
+      </c>
+      <c r="E46" s="3">
         <v>713000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>652600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>619000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>537100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>696200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>538100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>543800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>574200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>322400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>289200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>241400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>306600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>370200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>339900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>363900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>341400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2661,11 +2765,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>19800</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2673,153 +2777,162 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>5300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27500</v>
-      </c>
-      <c r="P47" s="3">
-        <v>27600</v>
       </c>
       <c r="Q47" s="3">
         <v>27600</v>
       </c>
       <c r="R47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="S47" s="3">
         <v>27500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>34000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>704700</v>
+      </c>
+      <c r="E48" s="3">
         <v>702400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>707200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>704600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>712900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>723200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>732200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>739800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>732000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>729400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>728700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>596700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>603900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>584300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>566100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>557700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>637700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>350300</v>
+      </c>
+      <c r="E49" s="3">
         <v>352300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>354300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>347700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>344500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>346600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>348800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>351200</v>
       </c>
       <c r="K49" s="3">
         <v>351200</v>
       </c>
       <c r="L49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="M49" s="3">
         <v>353400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>355700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>355800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>357100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>361000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>364900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>367000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>481400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E52" s="3">
         <v>52300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>62500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>50200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>53100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>55900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>52900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>34800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>44900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>45300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>47100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>38100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1772500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1820100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1776600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1729600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1644700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1819000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1652800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1668200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1720300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1471200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1443300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1263000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1330000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1388100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1343800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1363300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1532600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E57" s="3">
         <v>113300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>80200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>79200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>63600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>59700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>52500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E58" s="3">
         <v>8200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>509300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>866300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>866100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>363600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>522800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>512900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>736800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>62000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>140000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>90000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>93200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>104000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>245600</v>
+      </c>
+      <c r="E59" s="3">
         <v>289700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>302000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>263900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>197700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>212400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>208000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>189900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>202200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>186000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>219700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>138200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>160500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>147300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>186000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>139600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>158900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>334900</v>
+      </c>
+      <c r="E60" s="3">
         <v>411300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>390200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>320900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>261100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1119000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1089900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>602800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>754900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>777100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>908400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>263900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>350900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>335600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>279600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>315300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1475600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1475400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1474700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1472900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1472700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1680900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1679100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1679900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2166300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1744200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1735900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1457000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2084500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2083000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2081200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2078600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1995600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E62" s="3">
         <v>84100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>107500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>99900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>106700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>108100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>116800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>121700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1877900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1963500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1965300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1893400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1825900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2964300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2890400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2868200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2869400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2608100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2626500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2394200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2377500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2464300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2448100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2391100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2340800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,64 +4000,70 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>580400</v>
+      </c>
+      <c r="E70" s="3">
         <v>579900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>578900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>579200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>580000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-71100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-71700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-71300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-70600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-70400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-70900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-70500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-69800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-70400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="S70" s="3">
-        <v>-67600</v>
       </c>
       <c r="T70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-685800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-723300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-767600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-742900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-761200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-977700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-958000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-740700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13000</v>
+        <v>7300</v>
       </c>
       <c r="E81" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-74100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-45600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-69300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-44900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-70300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-56400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-213500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21900</v>
+        <v>23100</v>
       </c>
       <c r="E83" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F83" s="3">
         <v>20300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66800</v>
+        <v>76700</v>
       </c>
       <c r="E89" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>103500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>58500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>55900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>115200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-55700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>125900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>114600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20200</v>
+        <v>39200</v>
       </c>
       <c r="E91" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-20400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>34700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-6700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>84700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19100</v>
+        <v>-28100</v>
       </c>
       <c r="E94" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-29600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>65500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>30300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,7 +5328,7 @@
         <v>-50000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5128,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-9800</v>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16900</v>
+        <v>-19100</v>
       </c>
       <c r="E100" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-68300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-30400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-147400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>235100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>46300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>42100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-79000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>49100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>48400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-149600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30800</v>
+        <v>29500</v>
       </c>
       <c r="E102" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-113100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>59100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-103600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>305100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-56100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>109800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>387600</v>
+      </c>
+      <c r="E8" s="3">
         <v>647500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1079400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>394500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>335100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>564700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>553600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>281600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>412100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>510800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>293200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>279100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>479600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>573400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>352300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>347500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>515800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>209100</v>
+      </c>
+      <c r="E9" s="3">
         <v>365700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>996500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>223700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>177300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>273800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>140800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>127700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>178600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>240900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>137300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>139100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>252700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>315000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>207200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>210700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>294800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E10" s="3">
         <v>281800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>82900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>170800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>157800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>263800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>279800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>160100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>153900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>233500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>269900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>155900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>140000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>226900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>258400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>145100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>136800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>221000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,31 +1102,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-4900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>118900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>37400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1114,79 +1134,85 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E15" s="3">
         <v>23100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>42200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>25200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>25300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E17" s="3">
         <v>555300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>932100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>382100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>329700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>590300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>440200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>293100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>297900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>381600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>414500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>292600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>306000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>414800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>484700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>365800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>523200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>464500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>92200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>147300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>113400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>96300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-175700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>51300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,244 +1379,257 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E21" s="3">
         <v>115400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>193800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>36900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>138200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>50800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>116200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>85700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-150900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>74600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E22" s="3">
         <v>24000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>42200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>43900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>44600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>38100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E23" s="3">
         <v>68400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>101100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-67200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>64300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-46400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-70500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>48900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-45200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-71600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-57400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-220800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,58 +1637,61 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E26" s="3">
         <v>68100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-67400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>64000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-46500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-70600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-45700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-71700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-57500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-217800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E27" s="3">
         <v>7300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-74100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>62600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-45600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-69300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-44900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-56400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-213500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E33" s="3">
         <v>7300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-74100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>62600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-69300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-44900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-56400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-213500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E35" s="3">
         <v>7300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-74100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>62600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-69300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-44900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-56400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-213500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>147500</v>
+      </c>
+      <c r="E41" s="3">
         <v>217900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>157400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>270500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>211300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>217400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>202600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>238000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>177500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>45400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>40600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>63200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>119300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,249 +2608,264 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E43" s="3">
         <v>219300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>253900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>163500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>131600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>170500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>206300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>119500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>101400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>143000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>182400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>123800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>107600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>157200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>203200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>136200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>126100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>202700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E44" s="3">
         <v>100600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>118100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>131300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>88400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>69700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>90500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>79000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>72700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>65200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>78500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>85000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>80500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>78400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>89800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>106600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>83700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>85100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E45" s="3">
         <v>125400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>152600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>128600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>85500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>182000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>137000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>188500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>47800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>44100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>498100</v>
+      </c>
+      <c r="E46" s="3">
         <v>663100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>713000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>652600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>619000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>537100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>696200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>538100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>543800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>574200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>322400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>289200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>241400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>306600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>370200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>339900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>363900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>341400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>400</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -2768,11 +2873,11 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>19800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2780,159 +2885,168 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>5300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27500</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>27600</v>
       </c>
       <c r="R47" s="3">
         <v>27600</v>
       </c>
       <c r="S47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="T47" s="3">
         <v>27500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>34000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>707500</v>
+      </c>
+      <c r="E48" s="3">
         <v>704700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>702400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>707200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>704600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>712900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>723200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>732200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>739800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>732000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>729400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>728700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>596700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>603900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>584300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>566100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>557700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>637700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>354700</v>
+      </c>
+      <c r="E49" s="3">
         <v>350300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>352300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>354300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>347700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>344500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>346600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>348800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>351200</v>
       </c>
       <c r="L49" s="3">
         <v>351200</v>
       </c>
       <c r="M49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="N49" s="3">
         <v>353400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>355700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>355800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>357100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>361000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>364900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>367000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>481400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E52" s="3">
         <v>54400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>52300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>50200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>55900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>52900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>34800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>44900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>45300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>47100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>38100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1608100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1772500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1820100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1776600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1729600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1644700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1819000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1652800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1668200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1720300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1471200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1443300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1263000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1330000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1388100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1343800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1363300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1532600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E57" s="3">
         <v>81000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>113300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>80200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>79200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>63600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>59700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>52500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E58" s="3">
         <v>8300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>509300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>866300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>866100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>363600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>522800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>512900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>736800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>62000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>140000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>90000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>93200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>104000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>237900</v>
+      </c>
+      <c r="E59" s="3">
         <v>245600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>289700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>302000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>263900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>197700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>212400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>208000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>189900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>202200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>186000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>219700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>160500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>147300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>186000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>139600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>158900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>303800</v>
+      </c>
+      <c r="E60" s="3">
         <v>334900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>411300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>390200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>320900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>261100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1119000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1089900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>602800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>754900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>777100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>908400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>263900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>350900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>335600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>279600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>315300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1475300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1475600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1475400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1474700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1472900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1472700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1680900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1679100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1679900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2166300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1744200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1735900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1457000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2084500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2083000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2081200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2078600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1995600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E62" s="3">
         <v>74300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>108100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>107500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>99900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>106700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>108100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>116800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>121700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1837000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1877900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1963500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1965300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1893400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1825900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2964300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2890400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2868200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2869400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2608100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2626500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2394200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2377500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2464300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2448100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2391100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2340800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,67 +4168,73 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E70" s="3">
         <v>580400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>579900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>578900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>579200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>580000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-71100</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-71700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-71300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-70600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-70400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-70900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-70500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-69800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-70000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-70400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="T70" s="3">
-        <v>-67600</v>
       </c>
       <c r="U70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-808900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-685800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-723300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-767600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-742900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-761200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-977700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-958000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-740700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E81" s="3">
         <v>7300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-74100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>62600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-69300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-44900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-56400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-213500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E83" s="3">
         <v>23100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E89" s="3">
         <v>76700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>103500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>58500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>55900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>115200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-55700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>125900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-37500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>114600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>39200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>34700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>84700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-48700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>65500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>30300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,22 +5549,23 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="E96" s="3">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-50000</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5364,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-9800</v>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-85200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-68300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-147400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>235100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>46300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>42100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>49100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>48400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-149600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="E102" s="3">
         <v>29500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-82300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-113100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>59100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-103600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>305100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-22500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-56100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>109800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>413300</v>
+      </c>
+      <c r="E8" s="3">
         <v>387600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>647500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1079400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>394500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>335100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>564700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>553600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>281600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>412100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>510800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>293200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>279100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>479600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>573400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>352300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>347500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>515800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E9" s="3">
         <v>209100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>365700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>996500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>223700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>177300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>273800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>140800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>127700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>178600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>240900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>137300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>139100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>252700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>315000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>207200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>210700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>294800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>195400</v>
+      </c>
+      <c r="E10" s="3">
         <v>178500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>281800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>82900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>170800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>157800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>263800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>279800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>160100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>153900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>233500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>269900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>155900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>140000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>226900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>258400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>145100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>136800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>221000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,13 +1104,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1105,31 +1125,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-4900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>118900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>37400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1137,82 +1157,88 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E15" s="3">
         <v>24600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>23100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>42200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>19000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>25200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>25300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>393500</v>
+      </c>
+      <c r="E17" s="3">
         <v>382000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>555300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>932100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>382100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>329700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>590300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>440200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>293100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>297900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>381600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>414500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>292600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>306000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>414800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>484700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>365800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>523200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>464500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E18" s="3">
         <v>5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>92200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>147300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>113400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>96300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>64800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>88700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-175700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>51300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E21" s="3">
         <v>30600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>115400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>193800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>36900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>138200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>50800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>116200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>85700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>108400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-150900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>74600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E22" s="3">
         <v>25600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>42200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>52600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>43900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>44600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>38100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>68400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>101100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-67200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>64300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-46400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-70500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>48900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-45200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-71600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-57400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-220800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>68100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-67400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>64000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-46500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-70600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-45700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-57500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-217800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-74100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>62600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-69300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>47700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-44900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-56400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-213500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-74100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>62600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-69300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-44900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-56400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-213500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-74100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>62600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-69300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-44900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-56400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-213500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E41" s="3">
         <v>147500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>217900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>188400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>157400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>270500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>211300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>217400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>202600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>238000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>177500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>45400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>40600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>119300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,264 +2701,279 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E43" s="3">
         <v>150400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>219300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>253900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>163500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>131600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>170500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>206300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>119500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>101400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>143000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>182400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>123800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>107600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>157200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>203200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>136200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>126100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>202700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E44" s="3">
         <v>115200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>100600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>118100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>131300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>88400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>69700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>90500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>79000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>72700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>65200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>78500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>85000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>80500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>78400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>89800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>106600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>83700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>85100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E45" s="3">
         <v>85000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>125400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>152600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>128600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>85500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>182000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>137000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>131700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>188500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>44100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>427600</v>
+      </c>
+      <c r="E46" s="3">
         <v>498100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>663100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>713000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>652600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>619000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>537100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>696200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>538100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>543800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>574200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>322400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>289200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>241400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>306600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>370200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>339900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>363900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>341400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2876,11 +2981,11 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
         <v>19800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2888,165 +2993,174 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>5300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27500</v>
-      </c>
-      <c r="R47" s="3">
-        <v>27600</v>
       </c>
       <c r="S47" s="3">
         <v>27600</v>
       </c>
       <c r="T47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="U47" s="3">
         <v>27500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>34000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>675900</v>
+      </c>
+      <c r="E48" s="3">
         <v>707500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>704700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>702400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>707200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>704600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>712900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>723200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>732200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>739800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>732000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>729400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>728700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>596700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>603900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>584300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>566100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>557700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>637700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>362900</v>
+      </c>
+      <c r="E49" s="3">
         <v>354700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>350300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>352300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>354300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>347700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>344500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>346600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>348800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>351200</v>
       </c>
       <c r="M49" s="3">
         <v>351200</v>
       </c>
       <c r="N49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="O49" s="3">
         <v>353400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>355700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>355800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>357100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>361000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>364900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>367000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>481400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E52" s="3">
         <v>47400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>52300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>38600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>50200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>55900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>52900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>34800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>44900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>45300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>47100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>38100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1537600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1608100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1772500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1820100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1776600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1729600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1644700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1819000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1652800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1668200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1720300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1471200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1443300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1263000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1330000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1388100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1343800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1363300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1532600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E57" s="3">
         <v>57600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>81000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>113300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>80200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>79200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>63600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>59700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>52500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E58" s="3">
         <v>8400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>509300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>866300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>866100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>363600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>522800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>512900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>736800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>62000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>140000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>90000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>93200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>104000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>233100</v>
+      </c>
+      <c r="E59" s="3">
         <v>237900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>245600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>289700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>302000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>263900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>197700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>212400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>208000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>189900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>202200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>186000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>219700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>138200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>160500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>147300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>186000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>139600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>158900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E60" s="3">
         <v>303800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>334900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>411300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>390200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>320900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>261100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1119000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1089900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>602800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>754900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>777100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>908400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>263900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>350900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>335600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>279600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>315300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1451700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1475300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1475600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1475400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1474700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1472900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1472700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1680900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1679100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1679900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2166300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1744200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1735900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1457000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2084500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2083000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2081200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2078600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1995600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E62" s="3">
         <v>65400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>108100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>107500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>99900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>106700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>108100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>116800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>121700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1835000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1837000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1877900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1963500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1965300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1893400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1825900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2964300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2890400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2868200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2869400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2608100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2626500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2394200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2377500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2464300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2448100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2391100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2340800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,70 +4336,76 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>579800</v>
+      </c>
+      <c r="E70" s="3">
         <v>580000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>580400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>579900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>578900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>579200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>580000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-71100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-71700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-71300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-70600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-70400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-70900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-70500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-69800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-70000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-70400</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="U70" s="3">
-        <v>-67600</v>
       </c>
       <c r="V70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-877300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-808900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-685800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-723300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-767600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-742900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-761200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-977700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-958000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-740700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-74100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>62600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-69300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-44900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-56400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-213500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E83" s="3">
         <v>24600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="E89" s="3">
         <v>32300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>76700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>103500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>58500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>55900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>115200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-55700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>125900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-37500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>114600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-22200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>39200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>34700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-6700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>84700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-48700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-42200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>65500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>30300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,25 +5783,26 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-50000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-50000</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5601,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-9800</v>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-67700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-85200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-147400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>235100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>46300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>42100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-79000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>49100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>48400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-149600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-103400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-70400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>29500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-82300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-113100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>59100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-103600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>305100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-22500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-56100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>109800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>683900</v>
+      </c>
+      <c r="E8" s="3">
         <v>413300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>387600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>647500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1079400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>394500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>335100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>564700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>553600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>281600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>412100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>510800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>293200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>279100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>479600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>573400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>352300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>347500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>515800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>351700</v>
+      </c>
+      <c r="E9" s="3">
         <v>217900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>209100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>365700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>996500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>223700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>177300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>273800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>140800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>127700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>178600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>240900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>137300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>139100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>252700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>315000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>207200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>210700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>294800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>332200</v>
+      </c>
+      <c r="E10" s="3">
         <v>195400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>178500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>281800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>82900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>170800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>157800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>263800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>279800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>160100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>153900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>233500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>269900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>155900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>140000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>226900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>258400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>145100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>136800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>221000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,16 +1124,19 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1128,31 +1148,31 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-4900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>118900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>37400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1160,85 +1180,91 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E15" s="3">
         <v>22600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>23100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>42200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>20600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>19600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>19000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>25200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>25300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>561900</v>
+      </c>
+      <c r="E17" s="3">
         <v>393500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>382000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>555300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>932100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>382100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>329700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>590300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>440200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>293100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>297900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>381600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>414500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>292600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>306000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>414800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>484700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>365800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>523200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>464500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E18" s="3">
         <v>19800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>92200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>147300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>30500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>96300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>64800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>88700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-175700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>51300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E21" s="3">
         <v>42900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>115400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>193800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>36900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>138200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>116200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>85700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-150900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>74600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E22" s="3">
         <v>25000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>42200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>44900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>43900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>44600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>38100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>68400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>101100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-67200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-46400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-70500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>48900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-45200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-71600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>43900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-57400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-220800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>68100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-67400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-46500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-70600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-71700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>43900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-57500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-217800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20800</v>
+        <v>11600</v>
       </c>
       <c r="E27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-35400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-74100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-69300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-70300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-56400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-213500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20800</v>
+        <v>11600</v>
       </c>
       <c r="E33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-35400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-74100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>62600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-69300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-70300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>42900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-56400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-213500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20800</v>
+        <v>11600</v>
       </c>
       <c r="E35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-35400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-74100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>62600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-69300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-70300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>42900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-56400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-213500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E41" s="3">
         <v>44200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>147500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>217900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>188400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>157400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>270500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>211300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>217400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>202600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>238000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>177500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>45400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>40600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>63200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>119300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,279 +2794,294 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>233600</v>
+      </c>
+      <c r="E43" s="3">
         <v>158700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>150400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>219300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>253900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>163500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>131600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>170500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>206300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>119500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>101400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>143000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>182400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>123800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>107600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>157200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>203200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>136200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>126100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>202700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E44" s="3">
         <v>120100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>115200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>100600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>118100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>131300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>88400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>69700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>90500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>79000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>72700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>65200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>78500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>85000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>80500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>78400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>89800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>106600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>83700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>85100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E45" s="3">
         <v>104600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>85000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>125400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>152600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>128600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>85500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>182000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>137000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>188500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>47800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>44100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E46" s="3">
         <v>427600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>498100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>663100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>713000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>652600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>619000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>537100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>696200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>538100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>543800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>574200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>322400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>289200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>241400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>306600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>370200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>339900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>363900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>341400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2984,11 +3089,11 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
         <v>19800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2996,171 +3101,180 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>5300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27500</v>
-      </c>
-      <c r="S47" s="3">
-        <v>27600</v>
       </c>
       <c r="T47" s="3">
         <v>27600</v>
       </c>
       <c r="U47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="V47" s="3">
         <v>27500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>34000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>671800</v>
+      </c>
+      <c r="E48" s="3">
         <v>675900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>707500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>704700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>702400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>707200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>704600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>712900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>723200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>732200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>739800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>732000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>729400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>728700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>596700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>603900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>584300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>566100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>557700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>637700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>365400</v>
+      </c>
+      <c r="E49" s="3">
         <v>362900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>354700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>350300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>352300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>354300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>347700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>344500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>346600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>348800</v>
-      </c>
-      <c r="M49" s="3">
-        <v>351200</v>
       </c>
       <c r="N49" s="3">
         <v>351200</v>
       </c>
       <c r="O49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="P49" s="3">
         <v>353400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>355700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>355800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>357100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>361000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>364900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>367000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>481400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E52" s="3">
         <v>71200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>47400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>54400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>52300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>62500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>50200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>28000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>54700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>55900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>52900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>44900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>45300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>47100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>38100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1641000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1537600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1608100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1772500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1820100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1776600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1729600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1644700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1819000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1652800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1668200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1720300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1471200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1443300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1263000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1330000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1388100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1343800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1363300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1532600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E57" s="3">
         <v>60800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>81000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>113300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>80200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>63600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>59700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>46800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>52500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>17400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>509300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>866300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>866100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>363600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>522800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>512900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>736800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>62000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>140000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>90000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>93200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>104000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>246400</v>
+      </c>
+      <c r="E59" s="3">
         <v>233100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>237900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>245600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>289700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>302000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>263900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>197700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>212400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>208000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>189900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>202200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>186000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>219700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>138200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>160500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>147300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>186000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>139600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>158900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>335900</v>
+      </c>
+      <c r="E60" s="3">
         <v>311400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>303800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>334900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>411300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>390200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>320900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>261100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1119000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1089900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>602800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>754900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>777100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>908400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>263900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>350900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>335600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>279600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>315300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1453700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1451700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1475300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1475600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1475400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1474700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1472900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1472700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1680900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1679100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1679900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2166300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1744200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1735900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1457000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2084500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2083000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2081200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2078600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1995600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E62" s="3">
         <v>80300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>65400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>108100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>107500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>99900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>106700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>108100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>116800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>121700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>34200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1855400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1835000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1837000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1877900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1963500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1965300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1893400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1825900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2964300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2890400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2868200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2869400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2608100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2626500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2394200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2377500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2464300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2448100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2391100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2340800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,73 +4504,79 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>580700</v>
+      </c>
+      <c r="E70" s="3">
         <v>579800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>580000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>580400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>579900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>578900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>579200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>580000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-71100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-71700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-71300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-70600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-70400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-70900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-70500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-69800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-70000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-70400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="V70" s="3">
-        <v>-67600</v>
       </c>
       <c r="W70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-795000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-877300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-808900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-685800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-723300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-767600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-742900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-761200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-977700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-958000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-740700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20800</v>
+        <v>11600</v>
       </c>
       <c r="E81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-35400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-74100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>62600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-69300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-70300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>42900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-56400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-213500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E83" s="3">
         <v>22600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-66800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>76700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>103500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>58500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>115200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-55700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>125900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-37500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>114600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>39200</v>
+        <v>-25600</v>
       </c>
       <c r="G91" s="3">
-        <v>-40600</v>
+        <v>-30400</v>
       </c>
       <c r="H91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-20400</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1100</v>
-      </c>
       <c r="J91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K91" s="3">
         <v>34700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>84700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-42200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>65500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>30300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5793,19 +6027,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-50000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-50000</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5838,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-9800</v>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-67700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-85200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-68300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-147400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>235100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>46300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>42100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-79000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>49100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>48400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-149600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-103400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-70400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>29500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-82300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-113100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>59100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-103600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>305100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-34400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-22500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-56100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>109800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>683900</v>
+        <v>587300</v>
       </c>
       <c r="E8" s="3">
+        <v>1097200</v>
+      </c>
+      <c r="F8" s="3">
         <v>413300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>387600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>647500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1079400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>394500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>335100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>564700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>553600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>281600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>412100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>510800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>293200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>279100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>479600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>573400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>352300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>347500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>515800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>351700</v>
+        <v>295500</v>
       </c>
       <c r="E9" s="3">
+        <v>569600</v>
+      </c>
+      <c r="F9" s="3">
         <v>217900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>209100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>365700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>996500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>223700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>177300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>273800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>140800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>127700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>178600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>240900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>137300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>139100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>252700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>315000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>207200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>210700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>294800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>332200</v>
+        <v>291800</v>
       </c>
       <c r="E10" s="3">
+        <v>527600</v>
+      </c>
+      <c r="F10" s="3">
         <v>195400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>178500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>281800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>82900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>170800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>157800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>263800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>279800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>160100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>153900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>233500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>269900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>155900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>140000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>226900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>258400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>145100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>136800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>221000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,8 +1157,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1151,31 +1170,31 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>118900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>37400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1183,88 +1202,94 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H15" s="3">
         <v>23100</v>
       </c>
-      <c r="E15" s="3">
-        <v>22600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>24600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>23100</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>42200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>20600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>19600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>19000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>25200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>25300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>561900</v>
+        <v>490500</v>
       </c>
       <c r="E17" s="3">
+        <v>955400</v>
+      </c>
+      <c r="F17" s="3">
         <v>393500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>382000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>555300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>932100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>382100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>329700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>590300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>440200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>293100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>297900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>381600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>414500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>292600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>306000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>414800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>484700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>365800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>523200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>464500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>122000</v>
+        <v>96800</v>
       </c>
       <c r="E18" s="3">
+        <v>141800</v>
+      </c>
+      <c r="F18" s="3">
         <v>19800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>92200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>147300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>113400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-26900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>64800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>88700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-175700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>51300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>400</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="M20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>300</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>145700</v>
+        <v>121400</v>
       </c>
       <c r="E21" s="3">
+        <v>188600</v>
+      </c>
+      <c r="F21" s="3">
         <v>42900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>30600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>115400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>193800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>36900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>138200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>116200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>85700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>108400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-150900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>74600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23200</v>
+        <v>24300</v>
       </c>
       <c r="E22" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F22" s="3">
         <v>25000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>42200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>54000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>44200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>44900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>43900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>44600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>38100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>99400</v>
+        <v>73400</v>
       </c>
       <c r="E23" s="3">
+        <v>94700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>68400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>101100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-67200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>64300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-46400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-70500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>48900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-45200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-71600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>43900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-57400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-220800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>98900</v>
+        <v>73000</v>
       </c>
       <c r="E26" s="3">
+        <v>94200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>68100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-67400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-46500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-70600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-45700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-71700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>43900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-57500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-217800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11600</v>
+        <v>6100</v>
       </c>
       <c r="E27" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-74100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>62600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-69300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-44900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-70300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-56400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-213500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="M32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="O32" s="3">
+        <v>200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11600</v>
+        <v>6100</v>
       </c>
       <c r="E33" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-74100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-45600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-69300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-44900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-70300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-56400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-213500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11600</v>
+        <v>6100</v>
       </c>
       <c r="E35" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-74100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-69300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-44900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-70300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-56400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-213500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E41" s="3">
         <v>112600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>147500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>217900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>188400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>157400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>270500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>211300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>217400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>202600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>238000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>177500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>45400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>40600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>63200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>119300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2886,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E43" s="3">
         <v>233600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>158700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>150400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>219300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>253900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>163500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>131600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>170500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>206300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>119500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>101400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>143000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>182400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>123800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>107600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>157200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>203200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>136200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>126100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>202700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E44" s="3">
         <v>113400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>115200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>100600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>118100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>131300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>88400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>69700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>90500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>79000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>72700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>65200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>78500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>85000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>80500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>78400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>89800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>106600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>83700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>85100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E45" s="3">
         <v>77400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>104600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>85000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>125400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>152600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>128600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>85500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>182000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>137000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>131700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>188500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>47800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>42300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>34900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>44100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>445300</v>
+      </c>
+      <c r="E46" s="3">
         <v>537000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>427600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>498100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>663100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>713000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>652600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>619000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>537100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>696200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>538100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>543800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>574200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>322400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>289200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>241400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>306600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>370200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>339900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>363900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>341400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3080,11 +3184,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -3092,11 +3196,11 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>19800</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3104,177 +3208,186 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>5300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27500</v>
-      </c>
-      <c r="T47" s="3">
-        <v>27600</v>
       </c>
       <c r="U47" s="3">
         <v>27600</v>
       </c>
       <c r="V47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="W47" s="3">
         <v>27500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>34000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>679500</v>
+      </c>
+      <c r="E48" s="3">
         <v>671800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>675900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>707500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>704700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>702400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>707200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>704600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>712900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>723200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>732200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>739800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>732000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>729400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>728700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>596700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>603900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>584300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>566100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>557700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>637700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>365800</v>
+      </c>
+      <c r="E49" s="3">
         <v>365400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>362900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>354700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>350300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>352300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>354300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>347700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>344500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>346600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>348800</v>
-      </c>
-      <c r="N49" s="3">
-        <v>351200</v>
       </c>
       <c r="O49" s="3">
         <v>351200</v>
       </c>
       <c r="P49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>353400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>355700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>355800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>357100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>361000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>364900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>367000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>481400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E52" s="3">
         <v>66800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>71200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>47400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>54400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>52300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>54200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>54700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>55900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>52900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>34800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>44900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>45300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>47100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>38100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1555400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1641000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1537600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1608100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1772500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1820100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1776600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1729600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1644700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1819000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1652800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1668200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1720300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1471200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1443300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1263000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1330000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1388100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1343800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1363300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1532600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E57" s="3">
         <v>87400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>60800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>81000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>113300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>80200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>54300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>79200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>44400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>63600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>59700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>46800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>52500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>509300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>866300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>866100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>363600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>522800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>512900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>736800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>62000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>140000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>90000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>93200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>104000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>189400</v>
+      </c>
+      <c r="E59" s="3">
         <v>246400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>233100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>237900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>245600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>289700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>302000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>263900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>197700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>212400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>208000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>189900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>202200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>186000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>219700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>138200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>160500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>147300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>186000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>139600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>158900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>241900</v>
+      </c>
+      <c r="E60" s="3">
         <v>335900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>311400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>303800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>334900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>411300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>390200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>320900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>261100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1119000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1089900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>602800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>754900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>777100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>908400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>263900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>350900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>335600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>279600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>315300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1455200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1453700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1451700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1475300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1475600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1475400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1474700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1472900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1472700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1680900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1679100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1679900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2166300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1744200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1735900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1457000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2084500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2083000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2081200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2078600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1995600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E62" s="3">
         <v>73200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>65400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>74300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>108100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>107500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>99900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>106700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>108100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>116800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>121700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>36500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>38700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>39500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>34200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1759300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1855400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1835000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1837000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1877900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1963500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1965300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1893400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1825900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2964300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2890400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2868200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2869400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2608100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2626500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2394200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2377500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2464300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2448100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2391100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2340800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,76 +4671,82 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>581200</v>
+      </c>
+      <c r="E70" s="3">
         <v>580700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>579800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>580000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>580400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>579900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>578900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>579200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>580000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-71100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-71700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-71300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-70600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-70900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-70500</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-69800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-70000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>-70400</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="W70" s="3">
-        <v>-67600</v>
       </c>
       <c r="X70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-785200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-795000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-877300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-808900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-685800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-723300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-767600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-742900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-761200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-977700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-958000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-740700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11600</v>
+        <v>6100</v>
       </c>
       <c r="E81" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-74100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-45600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-69300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-44900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-70300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-56400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-213500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H83" s="3">
         <v>23100</v>
       </c>
-      <c r="E83" s="3">
-        <v>22600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>24600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>23100</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>124000</v>
+        <v>86000</v>
       </c>
       <c r="E89" s="3">
+        <v>57200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-66800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>76700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>103500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>58500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>115200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-55700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>125900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-37500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-17600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>114600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>34700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-6700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>84700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24500</v>
+        <v>-33000</v>
       </c>
       <c r="E94" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-34800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-42200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-34200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>65500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>30300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,31 +6250,32 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-50000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-50000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6075,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-9800</v>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31000</v>
+        <v>-72100</v>
       </c>
       <c r="E100" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-67700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-85200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-68300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-30400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-147400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>235100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>46300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>42100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-79000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>49100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>48400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-149600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>68500</v>
+        <v>-19100</v>
       </c>
       <c r="E102" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-103400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-70400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>29500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-82300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-113100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>59100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-103600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>305100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-34400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-22500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-56100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>109800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>7100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FGPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>FGPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>341900</v>
+      </c>
+      <c r="E8" s="3">
         <v>587300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1097200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>413300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>387600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>647500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1079400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>394500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>335100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>564700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>553600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>281600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>412100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>510800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>293200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>279100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>479600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>573400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>352300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>347500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>515800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>755200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E9" s="3">
         <v>295500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>569600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>217900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>209100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>365700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>996500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>223700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>177300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>273800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>140800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>127700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>178600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>240900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>137300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>139100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>252700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>315000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>207200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>210700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>294800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>488700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E10" s="3">
         <v>291800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>527600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>195400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>178500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>281800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>82900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>170800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>157800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>263800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>279800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>160100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>153900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>233500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>269900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>155900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>140000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>226900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>258400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>145100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>136800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>221000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,13 +1163,16 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1160,8 +1180,8 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1173,31 +1193,31 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-4900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>118900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>37400</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1205,91 +1225,97 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E15" s="3">
         <v>23800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>45700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>23100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>42200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>19600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>20600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>19600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>19000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>25200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>25300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>346900</v>
+      </c>
+      <c r="E17" s="3">
         <v>490500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>955400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>393500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>382000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>555300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>932100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>382100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>329700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>590300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>440200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>293100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>297900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>381600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>414500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>292600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>306000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>414800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>484700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>365800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>523200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>464500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>715100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>96800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>141800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>92200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>147300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>113400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>96300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-26900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>64800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>88700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-13500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-175700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>51300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E21" s="3">
         <v>121400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>188600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>42900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>115400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>193800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>36900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>138200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>116200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>85700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>108400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-150900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>74600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E22" s="3">
         <v>24300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>42200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>54200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>54000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>44700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>44200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>44900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>43900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>44600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>38100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>40500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E23" s="3">
         <v>73400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>94700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>68400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>101100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-67200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>64300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-46400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-70500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>48900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-45200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-71600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-57400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-220800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>11100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E26" s="3">
         <v>73000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>94200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>68100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-67400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>64000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-46500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-70600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-45700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-71700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>43900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-57500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-217800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-74100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-69300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-44900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-70300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-56400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-213500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-74100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-45600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-69300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-44900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-70300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-56400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-213500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-74100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-45600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-69300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-44900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-70300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-56400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-213500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E41" s="3">
         <v>93500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>147500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>217900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>188400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>157400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>270500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>211300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>217400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>202600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>238000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>177500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>45400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>40600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>63200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>119300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,292 +2979,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E43" s="3">
         <v>199000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>233600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>158700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>150400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>219300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>253900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>163500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>131600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>170500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>206300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>119500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>101400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>143000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>182400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>123800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>107600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>157200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>203200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>136200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>126100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>202700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E44" s="3">
         <v>97800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>113400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>115200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>100600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>118100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>131300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>88400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>69700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>90500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>79000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>72700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>65200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>78500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>85000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>80500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>78400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>89800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>106600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>83700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>85100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>110100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E45" s="3">
         <v>54900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>77400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>104600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>85000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>125400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>152600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>128600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>85500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>182000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>137000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>131700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>188500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>47800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>36600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>34000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>34900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>44100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>435900</v>
+      </c>
+      <c r="E46" s="3">
         <v>445300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>537000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>427600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>498100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>663100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>713000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>652600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>619000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>537100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>696200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>538100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>543800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>574200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>322400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>289200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>241400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>306600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>370200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>339900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>363900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>341400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3187,11 +3292,11 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3199,11 +3304,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>19800</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3211,183 +3316,192 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>5300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27500</v>
-      </c>
-      <c r="U47" s="3">
-        <v>27600</v>
       </c>
       <c r="V47" s="3">
         <v>27600</v>
       </c>
       <c r="W47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="X47" s="3">
         <v>27500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>34000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>697500</v>
+      </c>
+      <c r="E48" s="3">
         <v>679500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>671800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>675900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>707500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>704700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>702400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>707200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>704600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>712900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>723200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>732200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>739800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>732000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>729400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>728700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>596700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>603900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>584300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>566100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>557700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>637700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>646300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>363600</v>
+      </c>
+      <c r="E49" s="3">
         <v>365800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>365400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>362900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>354700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>350300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>352300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>354300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>347700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>344500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>346600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>348800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>351200</v>
       </c>
       <c r="P49" s="3">
         <v>351200</v>
       </c>
       <c r="Q49" s="3">
+        <v>351200</v>
+      </c>
+      <c r="R49" s="3">
         <v>353400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>355700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>355800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>357100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>361000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>364900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>367000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>481400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>489200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E52" s="3">
         <v>64700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>47400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>52300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>54200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>54700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>55900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>52900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>34800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>44900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>45300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>47100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>38100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1531400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1555400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1641000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1537600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1608100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1772500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1820100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1776600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1729600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1644700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1819000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1652800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1668200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1720300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1471200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1443300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1263000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1330000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1388100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1343800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1363300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1532600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1687100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E57" s="3">
         <v>49800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>87400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>81000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>113300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>80200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>54300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>79200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>63600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>59700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>46800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>52500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>509300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>866300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>866100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>363600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>522800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>512900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>736800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>62000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>140000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>90000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>93200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>104000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>427200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>215400</v>
+      </c>
+      <c r="E59" s="3">
         <v>189400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>246400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>233100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>237900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>245600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>289700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>302000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>263900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>197700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>212400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>208000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>189900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>202200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>186000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>219700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>138200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>160500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>147300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>186000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>139600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>158900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>140500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E60" s="3">
         <v>241900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>335900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>311400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>303800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>334900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>411300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>390200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>320900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>261100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1119000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1089900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>602800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>754900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>777100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>908400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>263900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>350900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>335600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>279600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>315300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>649800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1475800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1455200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1453700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1451700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1475300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1475600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1475400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1474700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1472900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1472700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1680900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1679100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1679900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2166300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1744200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1735900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1457000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2084500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2083000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2081200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2078600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1995600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1811600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E62" s="3">
         <v>69000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>73200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>65400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>74300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>84100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>108100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>107500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>99900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>106700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>108100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>116800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>121700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>38700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>39500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>34200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1771700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1759300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1855400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1835000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1837000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1877900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1963500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1965300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1893400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1825900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2964300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2890400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2868200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2869400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2608100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2626500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2394200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2377500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2464300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2448100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2391100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2340800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2492400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,79 +4839,85 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>580800</v>
+      </c>
+      <c r="E70" s="3">
         <v>581200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>580700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>579800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>580000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>580400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>579900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>578900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>579200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>580000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-71100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-71700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-71300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-70400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-70900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-70500</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-69800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>-70000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>-70400</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>-69800</v>
-      </c>
-      <c r="X70" s="3">
-        <v>-67600</v>
       </c>
       <c r="Y70" s="3">
         <v>-67600</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-821000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-785200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-795000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-877300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-808900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-685800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-723300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-767600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-742900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-761200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1074200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1165800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1128800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1078400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1066500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1112300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1060800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-977700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1006200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1033900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-958000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-740700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-737700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-74100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-45600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-69300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-44900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-70300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-56400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-213500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E83" s="3">
         <v>23800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>25300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E89" s="3">
         <v>86000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>57200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-66800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>76700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>103500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>58500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>55900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>115200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-55700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>125900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-37500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-17600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>114600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-44200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>34700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19500</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>84700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-42200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-34200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>65500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>30300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,34 +6484,35 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-50000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-50000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-50000</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -6311,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
-        <v>-9800</v>
+        <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>-9800</v>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>-9800</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-72100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-67700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-85200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-68300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-30400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-147400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>235100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>46300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>42100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-79000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>49100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>48400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-149600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-103400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-70400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>29500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-82300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-113100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>59100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-103600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>27000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>305100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-34400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-22500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-56100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>109800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>7100</v>
       </c>
     </row>
